--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Faltan 3 bauchers de terminal con las cantidades $442.00, $169.00 y $241.00 y incorporado un baucher del día anterior con la cantidad de $331.00 que no corresponde al corte actual</t>
+  </si>
+  <si>
+    <t>Hay un baucher con la cantidad de $851.00 que no esta registrada en el corte pero corresponde al día del corte.</t>
+  </si>
+  <si>
+    <t>Faltan 7 bauchers de terminal con las cantidades $235.00, $381.00. $520.00, $271.00, $284.00, $369.00, y $175.00 pero dichas cantidades entan cobradas en el reporte de terminal.</t>
+  </si>
+  <si>
+    <t>No coincide la cantidad de movimientos de caja, con las cantidades reportadas. Se totaliza una cantidad de $11,633.00, pero al sumar las cantidades del documento por separado dan un resultado de $13,433.00. Aparte falta un documento que representa la cantiudad de $142.00</t>
+  </si>
+  <si>
+    <t>Falta un baucher fisicamente con la cantidad de $32 pero en el reporte de la terminal si esta registrada. Punto 2 no hay documento que justifique los retiros de efectivo.</t>
   </si>
 </sst>
 </file>
@@ -439,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1197,12 @@
       <c r="A83" s="1">
         <v>45330</v>
       </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
       <c r="E83">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1194,6 +1212,12 @@
       <c r="A84" s="1">
         <v>45331</v>
       </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
       <c r="E84">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1203,6 +1227,12 @@
       <c r="A85" s="1">
         <v>45332</v>
       </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
       <c r="E85">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1212,6 +1242,9 @@
       <c r="A86" s="1">
         <v>45333</v>
       </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
       <c r="E86">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1221,6 +1254,9 @@
       <c r="A87" s="1">
         <v>45334</v>
       </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
       <c r="E87">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1230,6 +1266,9 @@
       <c r="A88" s="1">
         <v>45335</v>
       </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
       <c r="E88">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1239,6 +1278,9 @@
       <c r="A89" s="1">
         <v>45336</v>
       </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
       <c r="E89">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1248,6 +1290,9 @@
       <c r="A90" s="1">
         <v>45337</v>
       </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
       <c r="E90">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1257,6 +1302,9 @@
       <c r="A91" s="1">
         <v>45338</v>
       </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
       <c r="E91">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1266,6 +1314,12 @@
       <c r="A92" s="1">
         <v>45339</v>
       </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
       <c r="E92">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1275,6 +1329,9 @@
       <c r="A93" s="1">
         <v>45340</v>
       </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
       <c r="E93">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1284,6 +1341,12 @@
       <c r="A94" s="1">
         <v>45341</v>
       </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
       <c r="E94">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1293,6 +1356,12 @@
       <c r="A95" s="1">
         <v>45342</v>
       </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
       <c r="E95">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1311,6 +1380,12 @@
       <c r="A97" s="1">
         <v>45344</v>
       </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
       <c r="E97">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1319,6 +1394,12 @@
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45345</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
       </c>
       <c r="E98">
         <f t="shared" si="2"/>
@@ -1472,12 +1553,6 @@
       <c r="A115" s="1">
         <v>45359</v>
       </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
       <c r="E115">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1487,12 +1562,6 @@
       <c r="A116" s="1">
         <v>45360</v>
       </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
-      </c>
       <c r="E116">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1502,12 +1571,6 @@
       <c r="A117" s="1">
         <v>45361</v>
       </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
       <c r="E117">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1517,9 +1580,6 @@
       <c r="A118" s="1">
         <v>45362</v>
       </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
       <c r="E118">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1529,9 +1589,6 @@
       <c r="A119" s="1">
         <v>45363</v>
       </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
       <c r="E119">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -1541,9 +1598,6 @@
       <c r="A120" s="1">
         <v>45364</v>
       </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
       <c r="E120">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1553,9 +1607,6 @@
       <c r="A121" s="1">
         <v>45365</v>
       </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
       <c r="E121">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1565,9 +1616,6 @@
       <c r="A122" s="1">
         <v>45366</v>
       </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
       <c r="E122">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1577,9 +1625,6 @@
       <c r="A123" s="1">
         <v>45367</v>
       </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
       <c r="E123">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1589,9 +1634,6 @@
       <c r="A124" s="1">
         <v>45368</v>
       </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
       <c r="E124">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1601,9 +1643,6 @@
       <c r="A125" s="1">
         <v>45369</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
       <c r="E125">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1612,12 +1651,6 @@
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45370</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
-        <v>12</v>
       </c>
       <c r="E126">
         <f t="shared" si="3"/>

--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculadora cuadratica" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -76,15 +77,31 @@
   <si>
     <t>Falta un baucher fisicamente con la cantidad de $32 pero en el reporte de la terminal si esta registrada. Punto 2 no hay documento que justifique los retiros de efectivo.</t>
   </si>
+  <si>
+    <t>Sin comentarios</t>
+  </si>
+  <si>
+    <t>FALTANTE/ SOBRANTE</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Bauchers</t>
+  </si>
+  <si>
+    <t>Falta un baucher fisicamente con la cantidad de $299.00, y $605.00, pero se encuentran cobradas en el corte de terminal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +128,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,17 +176,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -170,7 +215,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,9 +495,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -461,50 +510,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -800,16 +849,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1105,16 +1154,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -1134,6 +1183,9 @@
       <c r="A76" s="1">
         <v>45323</v>
       </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
       <c r="E76">
         <f t="shared" ref="E76:E104" si="2">WEEKDAY(A76)</f>
         <v>5</v>
@@ -1143,6 +1195,9 @@
       <c r="A77" s="1">
         <v>45324</v>
       </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
       <c r="E77">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1245,6 +1300,9 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
       <c r="E86">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1257,6 +1315,9 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
       <c r="E87">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1269,6 +1330,9 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
       <c r="E88">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1281,6 +1345,9 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
       <c r="E89">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1293,6 +1360,9 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
       <c r="E90">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1305,6 +1375,9 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
       <c r="E91">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1332,6 +1405,9 @@
       <c r="B93" t="s">
         <v>8</v>
       </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
       <c r="E93">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1410,6 +1486,12 @@
       <c r="A99" s="1">
         <v>45346</v>
       </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
       <c r="E99">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1419,6 +1501,9 @@
       <c r="A100" s="1">
         <v>45347</v>
       </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
       <c r="E100">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1428,6 +1513,9 @@
       <c r="A101" s="1">
         <v>45348</v>
       </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
       <c r="E101">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1437,6 +1525,9 @@
       <c r="A102" s="1">
         <v>45349</v>
       </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
       <c r="E102">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1461,16 +1552,16 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -1776,4 +1867,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5">
+        <v>5315</v>
+      </c>
+      <c r="B1" s="5">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <f>SUM(A1:A64)</f>
+        <v>5315</v>
+      </c>
+      <c r="B65" s="5">
+        <f>SUM(B1:B64)</f>
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="5">
+        <f>A65-B65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Falta un baucher fisicamente con la cantidad de $299.00, y $605.00, pero se encuentran cobradas en el corte de terminal</t>
+  </si>
+  <si>
+    <t>En caja</t>
+  </si>
+  <si>
+    <t>En el corte se registran 2 cantidades  desiguales en el cobro de tarjetas, las cantidades son $14,646 (que representa el corte) y $14,582 (que representa el corte de terminal)</t>
+  </si>
+  <si>
+    <t>Falta un baucher fisicamente con la cantidad de $74, pero se encuentran cobradas en el corte de terminal</t>
   </si>
 </sst>
 </file>
@@ -500,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1216,9 @@
       <c r="A78" s="1">
         <v>45325</v>
       </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
       <c r="E78">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1216,6 +1228,9 @@
       <c r="A79" s="1">
         <v>45326</v>
       </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
       <c r="E79">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1225,6 +1240,9 @@
       <c r="A80" s="1">
         <v>45327</v>
       </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
       <c r="E80">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1234,6 +1252,9 @@
       <c r="A81" s="1">
         <v>45328</v>
       </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
       <c r="E81">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1243,6 +1264,9 @@
       <c r="A82" s="1">
         <v>45329</v>
       </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
       <c r="E82">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1447,6 +1471,12 @@
       <c r="A96" s="1">
         <v>45343</v>
       </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
       <c r="E96">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1504,6 +1534,9 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
       <c r="E100">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -1516,6 +1549,9 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
       <c r="E101">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1528,6 +1564,9 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
       <c r="E102">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1537,6 +1576,12 @@
       <c r="A103" s="1">
         <v>45350</v>
       </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
       <c r="E103">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1545,6 +1590,12 @@
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
       </c>
       <c r="E104">
         <f t="shared" si="2"/>
@@ -1580,6 +1631,12 @@
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45352</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
       </c>
       <c r="E108">
         <f t="shared" ref="E108:E138" si="3">WEEKDAY(A108)</f>
@@ -1876,8 +1933,8 @@
   </sheetPr>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,119 +1945,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
-        <v>5315</v>
-      </c>
-      <c r="B1" s="5">
-        <v>3315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>2000</v>
-      </c>
+      <c r="A2" s="5">
+        <v>1073</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>155</v>
+      </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>364</v>
+      </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>1112</v>
+      </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>384</v>
+      </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>364</v>
+      </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>1112</v>
+      </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>384</v>
+      </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5">
+        <v>353</v>
+      </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5">
+        <v>1552</v>
+      </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>347</v>
+      </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>74</v>
+      </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5">
+        <v>202</v>
+      </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>393</v>
+      </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
@@ -2151,11 +2232,11 @@
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>5315</v>
+        <v>8189</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>5315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2245,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>0</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -93,13 +93,55 @@
     <t>Falta un baucher fisicamente con la cantidad de $299.00, y $605.00, pero se encuentran cobradas en el corte de terminal</t>
   </si>
   <si>
-    <t>En caja</t>
-  </si>
-  <si>
-    <t>En el corte se registran 2 cantidades  desiguales en el cobro de tarjetas, las cantidades son $14,646 (que representa el corte) y $14,582 (que representa el corte de terminal)</t>
-  </si>
-  <si>
-    <t>Falta un baucher fisicamente con la cantidad de $74, pero se encuentran cobradas en el corte de terminal</t>
+    <t>sin comentarios</t>
+  </si>
+  <si>
+    <t>Corte de Jessica</t>
+  </si>
+  <si>
+    <t>Corte de Jessica no tiene bauchers</t>
+  </si>
+  <si>
+    <t>Festivo</t>
+  </si>
+  <si>
+    <t>Falta el corte del día</t>
+  </si>
+  <si>
+    <t>Falta revisar el corte</t>
+  </si>
+  <si>
+    <t>Falta bauchers de terminal</t>
+  </si>
+  <si>
+    <t>Faltan $249.00 en bauchers</t>
+  </si>
+  <si>
+    <t>Falta tranferencia de $19,868.00, tambien falta documento con la cantidad de $158.00</t>
+  </si>
+  <si>
+    <t>Falta pago de Codillo rocio</t>
+  </si>
+  <si>
+    <t>Faltante de bauchers con la cantidad de $1,322.00</t>
+  </si>
+  <si>
+    <t>Faltante de bauchers con la cantidad de $3,155.00 y tranferencia de $6,000.00</t>
+  </si>
+  <si>
+    <t>Falta retiro con la cantidad de $33,826.00, aparte faltan bauchers con una suma total de $2,213.00</t>
+  </si>
+  <si>
+    <t>Falta bauchers de terminal con la cantidad de $8,397.00</t>
+  </si>
+  <si>
+    <t>Falta bauchers con la cantidad $919.00</t>
+  </si>
+  <si>
+    <t>Falta comprobante de depositos y tambien una tranferencia con la cantidad de  $4,759.00</t>
+  </si>
+  <si>
+    <t>Sin revisar</t>
   </si>
 </sst>
 </file>
@@ -110,7 +152,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +181,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -205,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -213,10 +262,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -509,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A104" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,50 +569,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -858,16 +908,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -887,6 +937,12 @@
       <c r="A42" s="1">
         <v>45292</v>
       </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
       <c r="E42">
         <f t="shared" ref="E42:E72" si="1">WEEKDAY(A42)</f>
         <v>2</v>
@@ -896,6 +952,12 @@
       <c r="A43" s="1">
         <v>45293</v>
       </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
       <c r="E43">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -905,6 +967,12 @@
       <c r="A44" s="1">
         <v>45294</v>
       </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
       <c r="E44">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -914,6 +982,12 @@
       <c r="A45" s="1">
         <v>45295</v>
       </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
       <c r="E45">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -923,6 +997,12 @@
       <c r="A46" s="1">
         <v>45296</v>
       </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
       <c r="E46">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -932,6 +1012,12 @@
       <c r="A47" s="1">
         <v>45297</v>
       </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
       <c r="E47">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -941,6 +1027,12 @@
       <c r="A48" s="1">
         <v>45298</v>
       </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
       <c r="E48">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -950,6 +1042,12 @@
       <c r="A49" s="1">
         <v>45299</v>
       </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
       <c r="E49">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -959,6 +1057,12 @@
       <c r="A50" s="1">
         <v>45300</v>
       </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -968,6 +1072,12 @@
       <c r="A51" s="1">
         <v>45301</v>
       </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
       <c r="E51">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -977,6 +1087,12 @@
       <c r="A52" s="1">
         <v>45302</v>
       </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
       <c r="E52">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -986,6 +1102,12 @@
       <c r="A53" s="1">
         <v>45303</v>
       </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1163,16 +1285,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -1195,6 +1317,9 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
       <c r="E76">
         <f t="shared" ref="E76:E104" si="2">WEEKDAY(A76)</f>
         <v>5</v>
@@ -1207,6 +1332,9 @@
       <c r="B77" t="s">
         <v>8</v>
       </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
       <c r="E77">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1217,7 +1345,10 @@
         <v>45325</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
       </c>
       <c r="E78">
         <f t="shared" si="2"/>
@@ -1229,7 +1360,10 @@
         <v>45326</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
       </c>
       <c r="E79">
         <f t="shared" si="2"/>
@@ -1241,7 +1375,10 @@
         <v>45327</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
       </c>
       <c r="E80">
         <f t="shared" si="2"/>
@@ -1253,7 +1390,10 @@
         <v>45328</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
       </c>
       <c r="E81">
         <f t="shared" si="2"/>
@@ -1265,7 +1405,10 @@
         <v>45329</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
       </c>
       <c r="E82">
         <f t="shared" si="2"/>
@@ -1472,7 +1615,7 @@
         <v>45343</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -1565,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E102">
         <f t="shared" si="2"/>
@@ -1577,10 +1720,10 @@
         <v>45350</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E103">
         <f t="shared" si="2"/>
@@ -1592,10 +1735,7 @@
         <v>45351</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E104">
         <f t="shared" si="2"/>
@@ -1603,16 +1743,16 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -1631,12 +1771,6 @@
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45352</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>24</v>
       </c>
       <c r="E108">
         <f t="shared" ref="E108:E138" si="3">WEEKDAY(A108)</f>
@@ -1933,330 +2067,310 @@
   </sheetPr>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>320</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1073</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>155</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>364</v>
-      </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1112</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>384</v>
-      </c>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>364</v>
-      </c>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1112</v>
-      </c>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>384</v>
-      </c>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>353</v>
-      </c>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>1552</v>
-      </c>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>347</v>
-      </c>
+    <row r="12" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>74</v>
-      </c>
+    <row r="13" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>202</v>
-      </c>
+    <row r="14" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>393</v>
-      </c>
+    <row r="15" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>8189</v>
+        <v>0</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>8189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+        <v>-1868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="4.04" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Sin revisar</t>
+  </si>
+  <si>
+    <t>Falta deposito con la cantidad de $35,779.00</t>
+  </si>
+  <si>
+    <t>En el corte no se registro el deposito de Elias con la cantidad de $2,815.00</t>
   </si>
 </sst>
 </file>
@@ -559,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,6 +1778,12 @@
       <c r="A108" s="1">
         <v>45352</v>
       </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
       <c r="E108">
         <f t="shared" ref="E108:E138" si="3">WEEKDAY(A108)</f>
         <v>6</v>
@@ -1781,6 +1793,12 @@
       <c r="A109" s="1">
         <v>45353</v>
       </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
       <c r="E109">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1790,6 +1808,12 @@
       <c r="A110" s="1">
         <v>45354</v>
       </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
       <c r="E110">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1799,6 +1823,12 @@
       <c r="A111" s="1">
         <v>45355</v>
       </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
       <c r="E111">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1808,6 +1838,12 @@
       <c r="A112" s="1">
         <v>45356</v>
       </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
       <c r="E112">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -1817,6 +1853,12 @@
       <c r="A113" s="1">
         <v>45357</v>
       </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
       <c r="E113">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1826,6 +1868,12 @@
       <c r="A114" s="1">
         <v>45358</v>
       </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
       <c r="E114">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1835,6 +1883,12 @@
       <c r="A115" s="1">
         <v>45359</v>
       </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
       <c r="E115">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1844,6 +1898,12 @@
       <c r="A116" s="1">
         <v>45360</v>
       </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
       <c r="E116">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1853,6 +1913,12 @@
       <c r="A117" s="1">
         <v>45361</v>
       </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
       <c r="E117">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1862,6 +1928,12 @@
       <c r="A118" s="1">
         <v>45362</v>
       </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
       <c r="E118">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1871,6 +1943,12 @@
       <c r="A119" s="1">
         <v>45363</v>
       </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
       <c r="E119">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -1880,6 +1958,12 @@
       <c r="A120" s="1">
         <v>45364</v>
       </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
       <c r="E120">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1889,6 +1973,12 @@
       <c r="A121" s="1">
         <v>45365</v>
       </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
       <c r="E121">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1898,6 +1988,12 @@
       <c r="A122" s="1">
         <v>45366</v>
       </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
       <c r="E122">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1915,6 +2011,12 @@
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45368</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
       </c>
       <c r="E124">
         <f t="shared" si="3"/>
@@ -2065,312 +2167,762 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5">
+        <v>833</v>
+      </c>
       <c r="B1" s="5">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+      <c r="D1" s="5">
+        <v>977</v>
+      </c>
+      <c r="E1" s="5">
+        <v>827</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="5">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+      <c r="D65" s="5">
+        <f>SUM(D1:D64)</f>
+        <v>977</v>
+      </c>
+      <c r="E65" s="5">
+        <f>SUM(E1:E64)</f>
+        <v>827</v>
+      </c>
+      <c r="G65" s="5">
+        <f>SUM(G1:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>SUM(H1:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>SUM(J1:J64)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <f>SUM(K1:K64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>-1868</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="5">
+        <f>D65-E65</f>
+        <v>150</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="5">
+        <f>G65-H65</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="5">
+        <f>J65-K65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="4.04" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="5.2" right="0.21" top="0.2" bottom="0.75" header="0.17" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11 Sur/11 Sur.xlsx
+++ b/11 Sur/11 Sur.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>En el corte no se registro el deposito de Elias con la cantidad de $2,815.00</t>
+  </si>
+  <si>
+    <t>En el corte se registran 2 cantidades  desiguales en el cobro de tarjetas, las cantidades son $14,646 (que representa el corte) y $14,582 (que representa el corte de terminal)</t>
+  </si>
+  <si>
+    <t>Falta un baucher fisicamente con la cantidad de $74, pero se encuentran cobradas en el corte de terminal</t>
   </si>
 </sst>
 </file>
@@ -565,8 +571,8 @@
   </sheetPr>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,6 +1129,9 @@
       <c r="A54" s="1">
         <v>45304</v>
       </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
       <c r="E54">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1132,6 +1141,9 @@
       <c r="A55" s="1">
         <v>45305</v>
       </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
       <c r="E55">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1141,6 +1153,9 @@
       <c r="A56" s="1">
         <v>45306</v>
       </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
       <c r="E56">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1150,6 +1165,9 @@
       <c r="A57" s="1">
         <v>45307</v>
       </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1159,6 +1177,9 @@
       <c r="A58" s="1">
         <v>45308</v>
       </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
       <c r="E58">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1168,6 +1189,9 @@
       <c r="A59" s="1">
         <v>45309</v>
       </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
       <c r="E59">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1177,6 +1201,9 @@
       <c r="A60" s="1">
         <v>45310</v>
       </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
       <c r="E60">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1186,6 +1213,9 @@
       <c r="A61" s="1">
         <v>45311</v>
       </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
       <c r="E61">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1195,6 +1225,9 @@
       <c r="A62" s="1">
         <v>45312</v>
       </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
       <c r="E62">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1204,6 +1237,9 @@
       <c r="A63" s="1">
         <v>45313</v>
       </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
       <c r="E63">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1213,6 +1249,9 @@
       <c r="A64" s="1">
         <v>45314</v>
       </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
       <c r="E64">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1222,6 +1261,9 @@
       <c r="A65" s="1">
         <v>45315</v>
       </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
       <c r="E65">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1231,6 +1273,9 @@
       <c r="A66" s="1">
         <v>45316</v>
       </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
       <c r="E66">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1240,6 +1285,9 @@
       <c r="A67" s="1">
         <v>45317</v>
       </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
       <c r="E67">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1249,6 +1297,9 @@
       <c r="A68" s="1">
         <v>45318</v>
       </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
       <c r="E68">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1258,6 +1309,9 @@
       <c r="A69" s="1">
         <v>45319</v>
       </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
       <c r="E69">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1267,6 +1321,9 @@
       <c r="A70" s="1">
         <v>45320</v>
       </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
       <c r="E70">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1276,6 +1333,9 @@
       <c r="A71" s="1">
         <v>45321</v>
       </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
       <c r="E71">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1284,6 +1344,9 @@
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45322</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
@@ -1743,6 +1806,9 @@
       <c r="B104" t="s">
         <v>38</v>
       </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
       <c r="E104">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1782,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E108">
         <f t="shared" ref="E108:E138" si="3">WEEKDAY(A108)</f>
